--- a/tests/testing_files/conversion_comparison_type_exact_unique_test.xlsx
+++ b/tests/testing_files/conversion_comparison_type_exact_unique_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C23E72-E9A3-4C43-89E5-F04547F5401D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26084047-E1FC-481C-A52D-A4C87A54A64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3120" windowWidth="23640" windowHeight="12015" activeTab="1" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="3120" yWindow="1830" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
   </bookViews>
   <sheets>
     <sheet name="#convert" sheetId="6" r:id="rId1"/>
@@ -260,10 +260,10 @@
     <t>#comparison=exact</t>
   </si>
   <si>
-    <t>#measurement.compound.assign</t>
-  </si>
-  <si>
     <t>*#measurement.compound</t>
+  </si>
+  <si>
+    <t>#measurement.assignment.assign</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8067F3B6-BC85-4627-B925-1366E7FE6A62}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -679,7 +679,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>71</v>
@@ -706,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FFFD15-87D9-4AFC-82C0-CA4CE918806E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -836,7 +836,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">

--- a/tests/testing_files/conversion_comparison_type_exact_unique_test.xlsx
+++ b/tests/testing_files/conversion_comparison_type_exact_unique_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26084047-E1FC-481C-A52D-A4C87A54A64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741ECF86-8B25-4F26-B0DD-90B215E0A32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1830" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="3990" yWindow="2220" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
   </bookViews>
   <sheets>
     <sheet name="#convert" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
   <si>
     <t>NA</t>
   </si>
@@ -254,9 +254,6 @@
     <t>#measurement.formula.assign</t>
   </si>
   <si>
-    <t>#unique=true</t>
-  </si>
-  <si>
     <t>#comparison=exact</t>
   </si>
   <si>
@@ -264,6 +261,21 @@
   </si>
   <si>
     <t>#measurement.assignment.assign</t>
+  </si>
+  <si>
+    <t>#match=unique</t>
+  </si>
+  <si>
+    <t>qwer</t>
+  </si>
+  <si>
+    <t>#measurement.formula.value</t>
+  </si>
+  <si>
+    <t>zxcv</t>
+  </si>
+  <si>
+    <t>ghjk</t>
   </si>
 </sst>
 </file>
@@ -633,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8067F3B6-BC85-4627-B925-1366E7FE6A62}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -644,6 +656,7 @@
     <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -657,10 +670,10 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -679,13 +692,13 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -694,6 +707,56 @@
       </c>
       <c r="C5" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +899,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -915,10 +978,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A91633-EF22-4FB2-80F3-5ACFB40D0097}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1100,6 +1163,183 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>289287.73343735602</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>8490014.3650100008</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>439597.55237699999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>0.618176844244679</v>
+      </c>
+      <c r="P4">
+        <v>0.255757329816374</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>7989221.8338638796</v>
+      </c>
+      <c r="F5">
+        <v>8447352.8921099994</v>
+      </c>
+      <c r="G5">
+        <v>8490014.3650100008</v>
+      </c>
+      <c r="H5">
+        <v>8447352.8921099994</v>
+      </c>
+      <c r="I5">
+        <v>7839899.2880199999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>0.618176844244679</v>
+      </c>
+      <c r="P5">
+        <v>0.255757329816374</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>289287.73343735602</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>8490014.3650100008</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>439597.55237699999</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>0.618176844244679</v>
+      </c>
+      <c r="P6">
+        <v>0.255757329816374</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
